--- a/Data/Prod&Demand_Other_Sectors.xlsx
+++ b/Data/Prod&Demand_Other_Sectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8. Optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE132B96-719E-4F1F-8978-D2E7BCD048E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F5EB04-45CE-4F23-B0A2-28D9DAE7D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of content" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="205">
   <si>
     <t>Copper</t>
   </si>
@@ -846,6 +846,33 @@
   </si>
   <si>
     <t>(By-product Zn, Cu)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metal bottlenecks along energy transitions call for technology flexibility and sobriety</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+by Pénélope Bieuville, Guillaume Majeau Bettez and Anne de Bortoli, 2025</t>
+    </r>
+  </si>
+  <si>
+    <t>For any additionnal information on the study, please contact the author, Pénélope Bieuville, at : penelope.bieuville@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1743,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2319,6 +2346,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma 3" xfId="6" xr:uid="{AEAEE67C-8A32-41CF-9554-3DD49099CF90}"/>
@@ -2682,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA60DB4F-FFDD-408C-9A51-6B1C03E7882E}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2694,139 +2728,156 @@
     <col min="2" max="2" width="94.90625" style="170" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2" ht="14.5" customHeight="1">
+      <c r="A1" s="272" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="272"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="272"/>
+      <c r="B2" s="272"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="273" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="274"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B4" s="169" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="233" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="233" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="234"/>
-    </row>
-    <row r="3" spans="1:2" ht="101.5">
-      <c r="A3" s="165" t="s">
+      <c r="B5" s="234"/>
+    </row>
+    <row r="6" spans="1:2" ht="101.5">
+      <c r="A6" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B6" s="140" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29">
-      <c r="A4" s="165" t="s">
+    <row r="7" spans="1:2" ht="29">
+      <c r="A7" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B7" s="140" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="235" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="235" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="235"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+      <c r="B8" s="235"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B9" s="140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29">
-      <c r="A7" s="35" t="s">
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B10" s="140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="237" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="238"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="167" t="s">
+      <c r="B11" s="238"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B12" s="171" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="167" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B13" s="171" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="239" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="239" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="239"/>
-    </row>
-    <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="166" t="s">
+      <c r="B14" s="239"/>
+    </row>
+    <row r="15" spans="1:2" ht="29">
+      <c r="A15" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B15" s="140" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="166" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B16" s="140" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="236" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="236" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="236"/>
-    </row>
-    <row r="15" spans="1:2" ht="29">
-      <c r="A15" s="168" t="s">
+      <c r="B17" s="236"/>
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="168" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="140" t="s">
+      <c r="B18" s="140" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29">
-      <c r="A16" s="168" t="s">
+    <row r="19" spans="1:2" ht="29">
+      <c r="A19" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B19" s="140" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="43.5">
-      <c r="A17" s="168" t="s">
+    <row r="20" spans="1:2" ht="43.5">
+      <c r="A20" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B20" s="140" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26909,7 +26960,7 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
